--- a/doc/分工表（暂定）.xlsx
+++ b/doc/分工表（暂定）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAFD002-96E4-431D-AB54-B937B1F5AF5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E848E2-C7B0-4A17-BD21-E43782BA7A92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="0" windowWidth="28305" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收货地址管理等</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -203,6 +199,10 @@
   </si>
   <si>
     <t>按作者查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册(包括邮件，手机验证码等)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -316,24 +316,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,25 +692,25 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="10" t="s">
         <v>32</v>
       </c>
@@ -721,26 +721,26 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -749,26 +749,26 @@
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="4" t="s">
         <v>33</v>
       </c>
@@ -784,49 +784,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="M5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="10" t="s">
         <v>18</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
@@ -851,41 +851,41 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="F7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -906,6 +906,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="K3:O3"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="B5:C5"/>
@@ -916,22 +932,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
